--- a/class_schedules/JEWISH STUDIES (JWST).xlsx
+++ b/class_schedules/JEWISH STUDIES (JWST).xlsx
@@ -14,45 +14,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
   <si>
     <t>500</t>
   </si>
   <si>
-    <t>501</t>
+    <t>995F</t>
+  </si>
+  <si>
+    <t>995H</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
-    <t>14268</t>
-  </si>
-  <si>
-    <t>14269</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>02</t>
+  </si>
+  <si>
+    <t>14825</t>
+  </si>
+  <si>
+    <t>14347</t>
+  </si>
+  <si>
+    <t>14691</t>
+  </si>
+  <si>
+    <t>14835</t>
+  </si>
+  <si>
+    <t>14696</t>
+  </si>
+  <si>
+    <t>11284</t>
+  </si>
+  <si>
+    <t>13628</t>
+  </si>
+  <si>
+    <t>13629</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t>Linguistics</t>
-  </si>
-  <si>
-    <t>Portfolio</t>
-  </si>
-  <si>
-    <t>Capstone</t>
+    <t>Sacred Spaces &amp; Promised Lands</t>
+  </si>
+  <si>
+    <t>SLP Elementary Hebrew I</t>
+  </si>
+  <si>
+    <t>Jerusalem: Sacred Space</t>
+  </si>
+  <si>
+    <t>SLP: Intermediate Mod Hebrew I</t>
+  </si>
+  <si>
+    <t>New Testmnt/Christian Origins</t>
+  </si>
+  <si>
+    <t>Private Reading -</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>MTWR</t>
+  </si>
+  <si>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>Honors</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t>0130-0245pm</t>
+  </si>
+  <si>
+    <t>0910-1005am</t>
+  </si>
+  <si>
+    <t>1100-1150am</t>
+  </si>
+  <si>
+    <t>1020-1115am</t>
+  </si>
+  <si>
+    <t>0900-0950am</t>
   </si>
   <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>Haugen Jason</t>
+    <t>Rabin Shari</t>
+  </si>
+  <si>
+    <t>Hamilton Elizabeth</t>
+  </si>
+  <si>
+    <t>Chapman Cynthia</t>
+  </si>
+  <si>
+    <t>Wurtzel Ellen</t>
+  </si>
+  <si>
+    <t>Herron Laura</t>
   </si>
 </sst>
 </file>
@@ -410,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,31 +549,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -491,31 +584,238 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
